--- a/EduAnalysisTool/input_tool/edu_table_helper_FR_DRC.xlsx
+++ b/EduAnalysisTool/input_tool/edu_table_helper_FR_DRC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{12BE1669-350D-4A48-9691-8F4FC8C1B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{126D7324-A7B6-45B5-8CF6-445EFC690096}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{12BE1669-350D-4A48-9691-8F4FC8C1B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FCEAF6E-1879-4423-85D9-DF6653295782}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="9510" yWindow="-4225" windowWidth="19380" windowHeight="11460" firstSheet="2" activeTab="8" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t>tab</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Non-scolarisation</t>
   </si>
   <si>
-    <t>% d'enfants en âge scolaire n'ayant pas fréquenté l'école ou un programme d'éducation pré-primaire à n'importe quel moment de l'année scolaire 2023-2024</t>
-  </si>
-  <si>
     <t>Barrières</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>% d'enfants en âge de fréquenter l'école primaire ou plus</t>
   </si>
   <si>
-    <t>% d'enfants avec 2 ans de plus que l'âge prévu : primaire</t>
-  </si>
-  <si>
     <t>Ensemble</t>
   </si>
   <si>
@@ -109,15 +103,6 @@
     <t>% d'enfants un an avant l'âge d'entrée à l'école primaire fréquentant l'école primaire</t>
   </si>
   <si>
-    <t>% d'enfants en âge de niveau intermédiaire actuellement scolarisés au niveau intermédiaire ou plus</t>
-  </si>
-  <si>
-    <t>% d'enfants avec 2 ans de plus que l'âge prévu : secondaire</t>
-  </si>
-  <si>
-    <t>% d'enfants en âge de secondaire actuellement scolarisés au secondaire ou plus</t>
-  </si>
-  <si>
     <t>% d'enfants en âge de secondaire supérieur actuellement scolarisés au secondaire supérieur ou plus</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>% d'enfants en âge scolaire dont l'école a été occupée par des déplacés</t>
   </si>
   <si>
-    <t>% d'enfants d'âge scolaire dont l'éducation a été interrompue par l'occupation de l'école par les forces armées</t>
-  </si>
-  <si>
     <t>non_formal</t>
   </si>
   <si>
@@ -181,30 +163,9 @@
     <t>Non-formel</t>
   </si>
   <si>
-    <t>H3.4. Incidents de protection sur le trajet de l'école</t>
-  </si>
-  <si>
-    <t>H3.5. Incidents de protection au sein de l'école</t>
-  </si>
-  <si>
     <t>Cours d'alphabétisation</t>
   </si>
   <si>
-    <t>Ne sait pas</t>
-  </si>
-  <si>
-    <t>Préfère ne pas répondre</t>
-  </si>
-  <si>
-    <t>% d'enfants accédant à l'éducation en dehors des écoles formelles</t>
-  </si>
-  <si>
-    <t>Manque d'intérêt / L'éducation n'est pas une priorité pour l'enfant ou le ménage</t>
-  </si>
-  <si>
-    <t>Impossibilité de payer les coûts directs de l'éducation</t>
-  </si>
-  <si>
     <t>% d'enfants d'âge scolaire fréquentant Primaire qui ont au moins deux ans de plus que l'âge prévu pour leur classe</t>
   </si>
   <si>
@@ -217,35 +178,56 @@
     <t>Le handicap ou les problèmes de santé de l'enfant l'empêchent d'aller à l'école</t>
   </si>
   <si>
-    <t>Impossibilité de s'inscrire à l'école en raison d'un déplacement/retour récent</t>
-  </si>
-  <si>
-    <t>L'école a été fermée en raison de dommages, d'une catastrophe naturelle ou d'un conflit.</t>
-  </si>
-  <si>
     <t>Autre</t>
   </si>
   <si>
-    <t>CRS -- centre de rattrapage scolaire</t>
-  </si>
-  <si>
-    <t>Ecole communautaire -- non reconnue officielllement</t>
-  </si>
-  <si>
-    <t>Ecole coranique</t>
-  </si>
-  <si>
     <t>Centre de formation aux métiers</t>
   </si>
   <si>
     <t>Autre, préciser</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge scolaire ayant fréquenté l'école ou un programme d'éducation pré-primaire en 2024-2025</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge scolaire n'ayant pas fréquenté l'école ou un programme d'éducation pré-primaire à n'importe quel moment de l'année scolaire 2024-2025</t>
+  </si>
+  <si>
+    <t>L'enfant est trop jeune</t>
+  </si>
+  <si>
+    <t>Impossibilité de payer les coûts directs de l'éducation, par exemple, les frais de scolarité, les fournitures, le transport</t>
+  </si>
+  <si>
+    <t>Manque d'intérêt pour l'éducation formelle</t>
+  </si>
+  <si>
+    <t>L'école a été fermée en raison d'un conflit.</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge de fréquenter l'école secondaire ou plus</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge de fréquenter l'école humanite ou plus</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge scolaire dont l'éducation a été perturbée par des attaques directes contre l'éducation</t>
+  </si>
+  <si>
+    <t>Ecole communautaire, non reconnue officielllement</t>
+  </si>
+  <si>
+    <t>CRS, centre de rattrapage scolaire</t>
+  </si>
+  <si>
+    <t>% d'enfants accédant à l'éducation en dehors des écoles formelles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +273,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -319,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -332,6 +332,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B085A-F222-4D02-94C7-458C197FFE9F}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,54 +713,50 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>40</v>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08680CC-21CB-4C65-AC6D-F24FF5598654}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,41 +805,41 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -850,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,54 +888,54 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>56</v>
+      <c r="G2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="5" t="s">
-        <v>58</v>
+      <c r="G6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G7" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +949,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,35 +988,35 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1027,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,35 +1068,32 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1107,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB6243-7252-47E5-AC13-C1BFCCE2E7EE}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,35 +1145,32 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1187,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3E788-8021-4125-8D0E-F28A9B53C11D}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,32 +1222,32 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1304,10 +1299,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1316,20 +1311,20 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1337,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,69 +1370,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
-        <v>62</v>
+      <c r="G5" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="5" t="s">
-        <v>63</v>
+      <c r="G6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
@@ -1451,16 +1440,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5940141-1bc9-4c17-b1bc-e50f6b2083d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1469,7 +1448,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9824523CAB29F4DA646F20BAFE41B4C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d01f98d4b7c3ae4dbfef503d5398481d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5940141-1bc9-4c17-b1bc-e50f6b2083d6" xmlns:ns3="14cbb838-50ff-4dab-9c3f-cddf75f03c13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0453f2b21cedf67e6d4b1cf481923a1" ns2:_="" ns3:_="">
     <xsd:import namespace="b5940141-1bc9-4c17-b1bc-e50f6b2083d6"/>
@@ -1680,17 +1659,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5940141-1bc9-4c17-b1bc-e50f6b2083d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73A5FEB2-F552-4DAC-A2B2-DE6F0F15D48E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5940141-1bc9-4c17-b1bc-e50f6b2083d6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B0F1D4-83D4-47C4-A721-A02A8C53394D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1698,7 +1677,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86C682FE-3A4D-40FC-BD6B-0145611608A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1715,4 +1694,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73A5FEB2-F552-4DAC-A2B2-DE6F0F15D48E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5940141-1bc9-4c17-b1bc-e50f6b2083d6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>